--- a/tests/fixtures/verification/testing/stochastic/00001/00001-wc_lang.xlsx
+++ b/tests/fixtures/verification/testing/stochastic/00001/00001-wc_lang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28380" yWindow="460" windowWidth="27680" windowHeight="8980" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="640" yWindow="1160" windowWidth="28160" windowHeight="16880" tabRatio="500" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -4228,7 +4228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="186">
   <si>
     <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-12-05 17:09:36'</t>
   </si>
@@ -4777,6 +4777,15 @@
   </si>
   <si>
     <t>death-forward</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>gram / liter</t>
+  </si>
+  <si>
+    <t>cellular_compartment</t>
   </si>
 </sst>
 </file>
@@ -4893,7 +4902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4913,12 +4922,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4935,6 +4938,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5240,10 +5253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5528,10 +5538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5722,10 +5729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5914,10 +5918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5950,13 +5951,13 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="15" t="s">
         <v>86</v>
       </c>
       <c r="J2" s="5"/>
@@ -6010,19 +6011,19 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="15" t="b">
+      <c r="E4" s="13" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -6038,19 +6039,19 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="15" t="b">
+      <c r="E5" s="13" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -6252,11 +6253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6319,20 +6316,20 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>178</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>179</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -6345,20 +6342,20 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>175</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>178</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -6530,11 +6527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6784,11 +6777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7007,11 +6996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7250,11 +7235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7313,19 +7294,19 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>0.1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>177</v>
       </c>
       <c r="G3" s="3"/>
@@ -7335,19 +7316,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>0.11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>177</v>
       </c>
       <c r="G4" s="3"/>
@@ -7357,12 +7338,20 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -7498,11 +7487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7693,11 +7678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7739,42 +7720,42 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="15" t="s">
         <v>108</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="15" t="s">
         <v>110</v>
       </c>
       <c r="U2" s="5"/>
@@ -8187,12 +8168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8239,7 +8215,7 @@
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C3" s="3"/>
@@ -8468,11 +8444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8616,10 +8588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8652,10 +8621,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="15" t="s">
         <v>121</v>
       </c>
       <c r="I2" s="5"/>
@@ -8919,10 +8888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9274,10 +9240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9530,10 +9493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9871,12 +9831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10019,12 +9974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10181,10 +10131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10233,17 +10180,17 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -10368,9 +10315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -10414,29 +10360,29 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="15" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="15" t="s">
         <v>57</v>
       </c>
       <c r="Q2" s="5"/>
@@ -10511,18 +10457,21 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="10"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="10">
         <v>1</v>
       </c>
       <c r="J4" s="3">
@@ -10531,7 +10480,9 @@
       <c r="K4" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -10539,7 +10490,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="8" t="s">
         <v>164</v>
       </c>
       <c r="U4" s="3"/>
@@ -10826,10 +10777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10858,22 +10806,22 @@
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="15" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="5"/>
@@ -10928,20 +10876,20 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="G4" s="10">
+      <c r="E4" s="8"/>
+      <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <v>0</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>168</v>
       </c>
       <c r="J4" s="3"/>
@@ -11142,10 +11090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11200,11 +11145,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
         <v>167</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -11374,10 +11319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11444,19 +11386,19 @@
         <v>172</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>100</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>170</v>
       </c>
       <c r="H3" s="3"/>

--- a/tests/fixtures/verification/testing/stochastic/00001/00001-wc_lang.xlsx
+++ b/tests/fixtures/verification/testing/stochastic/00001/00001-wc_lang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_dev_repos/wc_sim/tests/fixtures/verification/testing/stochastic/00001/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_dev_repos/wc_sim/tests/fixtures/verification/cases/stochastic/00001/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1160" windowWidth="28160" windowHeight="16880" tabRatio="500" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="-22540" yWindow="11240" windowWidth="22280" windowHeight="9440" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -4228,12 +4228,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="186">
-  <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-12-05 17:09:36'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='TableOfContents' Description='Table of contents' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="192">
+  <si>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-12-05 16:22:38'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='TableOfContents' Description='Table of contents' Date='2019-12-05 16:22:38' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -4323,7 +4323,7 @@
     <t>!Revision</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Model' Name='Models' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Model' Name='Models' Date='2019-12-05 16:22:38' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Id</t>
@@ -4359,13 +4359,13 @@
     <t>!Created</t>
   </si>
   <si>
-    <t>2019-12-05 17:09:29</t>
+    <t>2019-12-05 16:22:32</t>
   </si>
   <si>
     <t>!Updated</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Taxon' Name='Taxons' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Taxon' Name='Taxons' Date='2019-12-05 16:22:38' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Rank</t>
@@ -4374,7 +4374,7 @@
     <t>!References</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Environment' Name='Environments' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Environment' Name='Environments' Date='2019-12-05 16:22:38' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Temperature</t>
@@ -4383,7 +4383,7 @@
     <t>!Temperature units</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Submodel' Name='Submodels' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Submodel' Name='Submodels' Date='2019-12-05 16:22:38' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Framework</t>
@@ -4395,7 +4395,7 @@
     <t>!Conclusions</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartments' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartments' Date='2019-12-05 16:22:38' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Initial volume</t>
@@ -4434,7 +4434,7 @@
     <t>!Initial density</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SpeciesType' Name='Species types' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SpeciesType' Name='Species types' Date='2019-12-05 16:22:38' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Structure</t>
@@ -4461,7 +4461,7 @@
     <t>!Type</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Species' Name='Species' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Species' Name='Species' Date='2019-12-05 16:22:39' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Species type</t>
@@ -4470,22 +4470,22 @@
     <t>!Compartment</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' Name='Init species concentrations' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' Name='Init species concentrations' Date='2019-12-05 16:22:39' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Species</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Observable' Name='Observables' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Observable' Name='Observables' Date='2019-12-05 16:22:39' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Expression</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Function' Name='Functions' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reactions' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Function' Name='Functions' Date='2019-12-05 16:22:39' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reactions' Date='2019-12-05 16:22:39' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Flux bounds</t>
@@ -4509,7 +4509,7 @@
     <t>!Maximum</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='RateLaw' Name='Rate laws' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='RateLaw' Name='Rate laws' Date='2019-12-05 16:22:39' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Reaction</t>
@@ -4518,7 +4518,7 @@
     <t>!Direction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='DfbaObjective' Name='dFBA objectives' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='DfbaObjective' Name='dFBA objectives' Date='2019-12-05 16:22:39' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Reaction rate units</t>
@@ -4527,28 +4527,28 @@
     <t>!Coefficient units</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='DfbaObjReaction' Name='dFBA objective reactions' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='DfbaObjReaction' Name='dFBA objective reactions' Date='2019-12-05 16:22:39' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Cell size units</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' Name='dFBA objective species' Date='2019-12-05 17:09:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' Name='dFBA objective species' Date='2019-12-05 16:22:39' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!dFBA objective reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Parameter' Name='Parameters' Date='2019-12-05 17:09:37' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Parameter' Name='Parameters' Date='2019-12-05 16:22:39' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Standard error</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StopCondition' Name='Stop conditions' Date='2019-12-05 17:09:37' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Observation' Name='Observations' Date='2019-12-05 17:09:37' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StopCondition' Name='Stop conditions' Date='2019-12-05 16:22:39' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Observation' Name='Observations' Date='2019-12-05 16:22:39' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Genotype</t>
@@ -4584,13 +4584,13 @@
     <t>!Experiment design</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ObservationSet' Name='Observation sets' Date='2019-12-05 17:09:37' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ObservationSet' Name='Observation sets' Date='2019-12-05 16:22:39' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Observations</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Conclusion' Name='Conclusions' Date='2019-12-05 17:09:37' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Conclusion' Name='Conclusions' Date='2019-12-05 16:22:39' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Process</t>
@@ -4602,7 +4602,7 @@
     <t>!Date</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reference' Name='References' Date='2019-12-05 17:09:37' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Reference' Name='References' Date='2019-12-05 16:22:40' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Title</t>
@@ -4644,7 +4644,7 @@
     <t>!Pages</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Author' Name='Authors' Date='2019-12-05 17:09:37' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Author' Name='Authors' Date='2019-12-05 16:22:40' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Last name</t>
@@ -4668,7 +4668,7 @@
     <t>!Address</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Change' Name='Changes' Date='2019-12-05 17:09:37' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Change' Name='Changes' Date='2019-12-05 16:22:40' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Target</t>
@@ -4695,16 +4695,82 @@
     <t>test_case_00001</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>gram</t>
+  </si>
+  <si>
+    <t>normal_distribution</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>1 / second</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
     <t>taxon</t>
   </si>
   <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>domain not used</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>gram / liter</t>
+  </si>
+  <si>
+    <t>density not used</t>
+  </si>
+  <si>
     <t>Basic two-reaction system</t>
   </si>
   <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>Rank not used</t>
+    <t>stochastic_simulation_algorithm</t>
+  </si>
+  <si>
+    <t>liter</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>MW doesn't matter</t>
+  </si>
+  <si>
+    <t>X[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-X[c]</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>death</t>
   </si>
   <si>
     <t>ssa_submodel</t>
@@ -4713,60 +4779,12 @@
     <t>SSA submodel</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>stochastic_simulation_algorithm</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>Volume does not matter in order 1 reactions</t>
-  </si>
-  <si>
-    <t>normal_distribution</t>
-  </si>
-  <si>
-    <t>liter</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>X[c]</t>
-  </si>
-  <si>
-    <t>molecules</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>dist-init-conc-X[c]</t>
-  </si>
-  <si>
-    <t>birth</t>
-  </si>
-  <si>
     <t>[c]: X ==&gt; (2) X</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
     <t>[c]: X ==&gt;</t>
   </si>
   <si>
-    <t>1 / second</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
     <t>lambda</t>
   </si>
   <si>
@@ -4779,13 +4797,13 @@
     <t>death-forward</t>
   </si>
   <si>
-    <t>density_c</t>
-  </si>
-  <si>
-    <t>gram / liter</t>
-  </si>
-  <si>
-    <t>cellular_compartment</t>
+    <t>lambda * X[c]</t>
+  </si>
+  <si>
+    <t>mu * X[c]</t>
+  </si>
+  <si>
+    <t>1 / (molecule * second)</t>
   </si>
 </sst>
 </file>
@@ -4874,10 +4892,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -4902,7 +4929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4922,16 +4949,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4939,15 +4972,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5253,7 +5321,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5538,7 +5609,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5729,7 +5803,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5918,7 +5995,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5951,13 +6031,13 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="26" t="s">
         <v>86</v>
       </c>
       <c r="J2" s="5"/>
@@ -6011,23 +6091,23 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="13" t="b">
+      <c r="A4" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6040,22 +6120,22 @@
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>159</v>
+        <v>180</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="13" t="b">
+        <v>184</v>
+      </c>
+      <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -6199,7 +6279,7 @@
   <mergeCells count="1">
     <mergeCell ref="G2:I2"/>
   </mergeCells>
-  <dataValidations count="13">
+  <dataValidations count="14">
     <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A4:A13">
       <formula1>1</formula1>
       <formula2>63</formula2>
@@ -6211,7 +6291,7 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reversible" error="Enter a Boolean value_x000a__x000a_Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="Reversible" prompt="Enter a Boolean value_x000a__x000a_Select &quot;True&quot; or &quot;False&quot;." sqref="E4:E13">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rate units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;1 / second&quot; or blank." sqref="F4:F13">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rate units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;1 / second&quot; or blank." sqref="F6:F13">
       <formula1>"1 / second"</formula1>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Minimum" error="Value must be a float or blank." promptTitle="Minimum" prompt="Enter a float or blank." sqref="G4:G13">
@@ -6231,6 +6311,9 @@
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N4:N13"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;1 / second&quot; or blank." sqref="F4:F5">
+      <formula1>"1 / second"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6253,7 +6336,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6316,24 +6402,22 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>178</v>
+      <c r="A3" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>177</v>
+      <c r="F3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -6342,24 +6426,22 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>178</v>
+      <c r="A4" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>177</v>
+      <c r="F4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -6482,19 +6564,13 @@
   </sheetData>
   <autoFilter ref="A2:L2"/>
   <dataValidations count="11">
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A3:A12 B3:C4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B5:B12">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A3:A12">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." sqref="D3:D12">
       <formula1>"backward,forward"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E3:E12">
-      <formula1>"Michaelis_Menten_rate_law,hill_rate_law,mass_action_rate_law,modular_rate_law"</formula1>
-    </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F5:F12"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F3:F12"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;1 / second&quot; or blank." sqref="G3:G12">
       <formula1>"1 / second"</formula1>
     </dataValidation>
@@ -6505,6 +6581,12 @@
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L3:L12"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:B12">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E3:E12">
+      <formula1>"Michaelis_Menten_rate_law,hill_rate_law,mass_action_rate_law,modular_rate_law"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6515,7 +6597,7 @@
           <x14:formula1>
             <xm:f>'!!Reactions'!$A$4:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C12 F3:F4</xm:sqref>
+          <xm:sqref>C3:C12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6527,7 +6609,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6777,7 +6862,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6996,7 +7084,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7235,11 +7326,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="15.6640625" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7249,9 +7346,9 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7268,13 +7365,13 @@
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="28" t="s">
         <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -7294,63 +7391,56 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
+      <c r="A3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="24">
+        <v>1</v>
+      </c>
+      <c r="E3" s="24">
         <v>0</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>177</v>
+      <c r="F3" s="29" t="s">
+        <v>170</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="8">
+        <v>185</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="D4" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="D5" s="24">
         <v>0.11</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="24">
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>184</v>
+      <c r="F5" s="29" t="s">
+        <v>191</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -7362,9 +7452,9 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -7375,9 +7465,9 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -7388,9 +7478,9 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -7401,9 +7491,9 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -7414,9 +7504,9 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -7427,9 +7517,9 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -7440,9 +7530,9 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -7452,29 +7542,29 @@
   </sheetData>
   <autoFilter ref="A2:K2"/>
   <dataValidations count="11">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A3:A12 B3:B4">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A5:A12 A3">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B5:B12">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B5:B12 B3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C3:C12">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C5:C12 C3">
       <formula1>"kinetic_constant,K_i,K_m,k_cat,v_max"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D5:D12">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D3:D12">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="F3:F12"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G3:G12"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="H3:H12"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I3:I12"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="J3:J12">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G5:G12 G3"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="H5:H12 H3"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I5:I12 I3"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="J5:J12 J3">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K3:K12"/>
-    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="E5:E12 D3:D4">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K5:K12 K3"/>
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="E3:E12">
       <formula1>-1E-100</formula1>
     </dataValidation>
   </dataValidations>
@@ -7487,7 +7577,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7678,7 +7771,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7720,42 +7816,42 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="26" t="s">
         <v>108</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="26" t="s">
         <v>110</v>
       </c>
       <c r="U2" s="5"/>
@@ -8168,7 +8264,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8216,7 +8317,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8444,7 +8545,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8588,7 +8692,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8621,10 +8728,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="26" t="s">
         <v>121</v>
       </c>
       <c r="I2" s="5"/>
@@ -8888,7 +8995,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9240,7 +9350,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9493,7 +9606,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9831,12 +9947,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="11" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="41.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="8.83203125" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9860,7 +9982,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -9891,8 +10013,8 @@
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
-        <v>157</v>
+      <c r="B4" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -9908,6 +10030,7 @@
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -9922,8 +10045,8 @@
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
-        <v>158</v>
+      <c r="B6" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -9959,11 +10082,11 @@
     <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Rank" error="Value must be one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." promptTitle="Rank" prompt="Select one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." sqref="B4:K4">
       <formula1>"domain,kingdom,phylum,classis,order,family,tribe,genus,species,variety"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="C6:K6">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="B5:K5"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="B6:K6">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="B7:K7"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="C5:K5 B6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9974,7 +10097,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10131,13 +10259,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="15.6640625" customWidth="1"/>
+    <col min="1" max="8" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10181,15 +10310,14 @@
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>182</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="E3" s="8"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -10198,7 +10326,6 @@
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -10295,16 +10422,16 @@
     <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:B12">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Framework" error="Value must be a comma-separated list of WC ontology terms &quot;deterministic_simulation_algorithm&quot;, &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." promptTitle="Framework" prompt="Enter a comma-separated list of WC ontology terms &quot;deterministic_simulation_algorithm&quot;, &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." sqref="C3:C12">
-      <formula1>"deterministic_simulation_algorithm,dynamic_flux_balance_analysis,ordinary_differential_equations,stochastic_simulation_algorithm"</formula1>
-    </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="D3:D12"/>
     <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="E3:E12"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="F3:F12"/>
     <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="G3:G12">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="H3:H12"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="D4:D12"/>
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Framework" error="Value must be a comma-separated list of WC ontology terms &quot;deterministic_simulation_algorithm&quot;, &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." promptTitle="Framework" prompt="Enter a comma-separated list of WC ontology terms &quot;deterministic_simulation_algorithm&quot;, &quot;dynamic_flux_balance_analysis&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." sqref="C5:C12 C3">
+      <formula1>"deterministic_simulation_algorithm,dynamic_flux_balance_analysis,ordinary_differential_equations,stochastic_simulation_algorithm"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -10315,15 +10442,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="1" max="21" width="15.6640625" customWidth="1"/>
     <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10360,29 +10486,29 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="26" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="26" t="s">
         <v>57</v>
       </c>
       <c r="Q2" s="5"/>
@@ -10458,30 +10584,36 @@
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="G4" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="H4" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="I4" s="10">
+        <v>160</v>
+      </c>
+      <c r="I4" s="9">
         <v>1</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>183</v>
+      <c r="K4" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -10490,9 +10622,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="8" t="s">
-        <v>164</v>
-      </c>
+      <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10503,11 +10633,8 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -10719,22 +10846,22 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Biological type" error="Value must be a comma-separated list of WC ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." promptTitle="Biological type" prompt="Enter a comma-separated list of WC ontology terms &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." sqref="C4:C13">
       <formula1>"cellular_compartment,extracellular_compartment"</formula1>
     </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Physical type" error="Value must be a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." promptTitle="Physical type" prompt="Enter a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." sqref="D4:D13">
+      <formula1>"fluid_compartment,membrane_compartment"</formula1>
+    </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Geometry" error="Value must be a comma-separated list of WC ontology terms &quot;3D_compartment&quot; or blank." promptTitle="Geometry" prompt="Enter a comma-separated list of WC ontology terms &quot;3D_compartment&quot; or blank." sqref="E4:E13">
       <formula1>"3D_compartment"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mass units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;gram&quot; or blank." promptTitle="Mass units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;gram&quot; or blank." sqref="G4:G13">
       <formula1>"gram"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." sqref="H4:H13 M4:M13"/>
-    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="I5:I13">
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="I4:I13">
       <formula1>-1E-100</formula1>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="J4:J13 O4:O13">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;liter&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;liter&quot; or blank." sqref="K4:K13">
-      <formula1>"liter"</formula1>
-    </dataValidation>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." sqref="M4:M13 H4 H6:H13"/>
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank." sqref="N4:N13">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
@@ -10745,14 +10872,14 @@
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="Q4:Q13"/>
     <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="R4:R13"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="S4:S13"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="T5:T13">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="T4:T13">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="U4:U13"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Physical type" error="Value must be a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." promptTitle="Physical type" prompt="Enter a comma-separated list of WC ontology terms &quot;fluid_compartment&quot;, &quot;membrane_compartment&quot; or blank." sqref="D5:D13 I4">
-      <formula1>"fluid_compartment,membrane_compartment"</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Parent compartment" error="Value must be a value from &quot;!!Compartments:A&quot; or blank." promptTitle="Parent compartment" prompt="Select a value from &quot;!!Compartments:A&quot; or blank." sqref="F5:F13 T4">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;liter&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;liter&quot; or blank." sqref="K6:K13 K4">
+      <formula1>"liter"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Parent compartment" error="Value must be a value from &quot;!!Compartments:A&quot; or blank." promptTitle="Parent compartment" prompt="Select a value from &quot;!!Compartments:A&quot; or blank." sqref="F4:F13">
       <formula1>$A$4:$A$1048576</formula1>
     </dataValidation>
   </dataValidations>
@@ -10760,12 +10887,18 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Initial density" error="Value must be a value from &quot;!!Parameters:A&quot; or blank." promptTitle="Initial density" prompt="Select a value from &quot;!!Parameters:A&quot; or blank.">
           <x14:formula1>
             <xm:f>'!!Parameters'!$A$3:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>L4:L13</xm:sqref>
+          <xm:sqref>L6:L13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Initial density" error="Value must be a value from &quot;!!Parameters:A&quot; or blank." promptTitle="Initial density" prompt="Select a value from &quot;!!Parameters:A&quot; or blank.">
+          <x14:formula1>
+            <xm:f>'!!Parameters'!$A$3:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>L4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10777,7 +10910,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10806,22 +10942,22 @@
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="26" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="5"/>
@@ -10831,7 +10967,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -10877,25 +11013,30 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="G4" s="8">
+        <v>175</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>168</v>
+      <c r="I4" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="M4" s="14" t="s">
+        <v>176</v>
+      </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11026,60 +11167,45 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A3:N3"/>
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A4:A13">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A4:A12">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B4:B13">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B4:B12">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Value" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="C4:C13">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Value" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="C4:C12">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Format" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot;, &quot;bcforms&quot; or blank." promptTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot;, &quot;bcforms&quot; or blank." sqref="D4:D13">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Format" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot;, &quot;bcforms&quot; or blank." promptTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot;, &quot;bcforms&quot; or blank." sqref="D4:D12">
       <formula1>"smiles,bpforms,bcforms"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alphabet" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." sqref="E4:E13">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alphabet" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." sqref="E4:E12">
       <formula1>"dna,rna,protein,canonical_dna,canonical_rna,canonical_protein"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;I ..." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;Ion&quot;, &quot;am ..." sqref="I5:I13"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J4:J13"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="K4:K13"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L4:L13"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="M4:M13">
-      <formula1>4294967295</formula1>
-    </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N4:N13"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Empirical formula" error="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')_x000a__x000a_Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" prompt="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')_x000a__x000a_Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="F5:F13 G4"/>
-    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Molecular weight" error="Value must be a float or blank." promptTitle="Molecular weight" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="G5:G13 H4">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Empirical formula" error="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')_x000a__x000a_Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" prompt="An empirical formula (e.g. 'H2O', 'CO2', or 'NaCl')_x000a__x000a_Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="F4:F12"/>
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Molecular weight" error="Value must be a float or blank." promptTitle="Molecular weight" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="G4:G12">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Charge" error="Value must be an integer." promptTitle="Charge" prompt="Enter an integer." sqref="H5:H13 I4">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Charge" error="Value must be an integer." promptTitle="Charge" prompt="Enter an integer." sqref="H4:H12">
       <formula1>-32768</formula1>
       <formula2>32767</formula2>
     </dataValidation>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;I ..." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComplex&quot;, &quot;Ion&quot;, &quot;am ..." sqref="I4:I12"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J4:J12"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="K4:K12"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L4:L12"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="M4:M12">
+      <formula1>4294967295</formula1>
+    </dataValidation>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N4:N12"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11090,7 +11216,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11145,18 +11274,18 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" t="s">
         <v>169</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -11165,11 +11294,10 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -11275,7 +11403,7 @@
   </sheetData>
   <autoFilter ref="A2:J2"/>
   <dataValidations count="8">
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A3:A12">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A4:A12">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:B12">
@@ -11297,17 +11425,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Compartment" error="Value must be a value from &quot;!!Compartments:A&quot;." promptTitle="Compartment" prompt="Select a value from &quot;!!Compartments:A&quot;.">
+          <x14:formula1>
+            <xm:f>'!!Compartments'!$A$4:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D12</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species type" error="Value must be a value from &quot;!!Species types:A&quot;." promptTitle="Species type" prompt="Select a value from &quot;!!Species types:A&quot;.">
           <x14:formula1>
             <xm:f>'!!Species types'!$A$4:$A$1048576</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Compartment" error="Value must be a value from &quot;!!Compartments:A&quot;." promptTitle="Compartment" prompt="Select a value from &quot;!!Compartments:A&quot;.">
-          <x14:formula1>
-            <xm:f>'!!Compartments'!$A$4:$A$1048576</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11319,7 +11447,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11383,23 +11514,23 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="18">
+        <v>100</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="13">
-        <v>100</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>170</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -11410,11 +11541,10 @@
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="C4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -11536,17 +11666,20 @@
   </sheetData>
   <autoFilter ref="A2:L2"/>
   <dataValidations count="11">
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A3:A12">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A3:A12 C3:C4">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:B12">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." sqref="D4:D12"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;W ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_distribution&quot;, &quot;Weibull_d ..." sqref="D3:D12"/>
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="E3:E12">
+      <formula1>-1E-100</formula1>
+    </dataValidation>
     <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="F3:F12">
       <formula1>-1E-100</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." sqref="G4:G12">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." sqref="G3:G12">
       <formula1>"molecule,molar,millimolar,micromolar,nanomolar,picomolar,femtomolar,attomolar"</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H3:H12"/>
@@ -11556,9 +11689,6 @@
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L3:L12"/>
-    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="E4:E12 G3">
-      <formula1>-1E-100</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11569,7 +11699,7 @@
           <x14:formula1>
             <xm:f>'!!Species'!$A$3:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C12</xm:sqref>
+          <xm:sqref>C5:C12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/tests/fixtures/verification/testing/stochastic/00001/00001-wc_lang.xlsx
+++ b/tests/fixtures/verification/testing/stochastic/00001/00001-wc_lang.xlsx
@@ -2872,7 +2872,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3090,7 +3090,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3306,7 +3306,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3685,7 +3685,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3996,7 +3996,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4267,7 +4267,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4503,7 +4503,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4758,7 +4758,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5048,7 +5048,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5266,7 +5266,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5798,7 +5798,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6120,7 +6120,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6285,7 +6285,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6621,7 +6621,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7018,7 +7018,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7304,7 +7304,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7677,7 +7677,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -7850,7 +7850,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8029,7 +8029,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8240,7 +8240,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8740,7 +8740,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9075,7 +9075,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9322,7 +9322,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
